--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Puntarenas FC</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>San Carlos</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.02</v>
+        <v>2.7</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-san-carlos/6oBA1BH4/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-sporting-san-jose/lAG52i2b/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Puntarenas FC</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.26</v>
+        <v>3.21</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-sporting-san-jose/lAG52i2b/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-san-carlos/6oBA1BH4/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,98 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-guanacasteca/674kJzq7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.125</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>04/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:59</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>04/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:59</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>04/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:57</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-santos-de-guapiles/EDRGZeTm/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7817,6 +7817,190 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.04166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:51</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:51</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:51</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-liberia/h4QKYFrf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45207.16666666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:59</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:58</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-saprissa/fTppuI5Q/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Puntarenas FC</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.26</v>
+        <v>3.21</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-sporting-san-jose/lAG52i2b/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-san-carlos/6oBA1BH4/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Puntarenas FC</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>San Carlos</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.02</v>
+        <v>2.7</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-san-carlos/6oBA1BH4/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-sporting-san-jose/lAG52i2b/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,282 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-saprissa/fTppuI5Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45207.95833333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>03/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>03/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>03/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-cartagines/nuuOXZc0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:52</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:52</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:52</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-sporting-san-jose/WlxCzxEs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45208.08333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:57</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:57</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:57</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/san-carlos-guanacasteca/06ottbjK/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8277,6 +8277,282 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45216.95833333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>17/10/2023 22:11</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>17/10/2023 22:47</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>17/10/2023 22:11</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/liberia-santos-de-guapiles/EiKMhyzQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45217.08333333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>18/10/2023 01:51</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>18/10/2023 01:51</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>18/10/2023 01:51</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-grecia/fo2klers/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45217.16666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>18/10/2023 03:51</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>18/10/2023 03:57</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>18/10/2023 03:57</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-puntarenas-fc/McXzVXsJ/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45218.08333333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:56</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:56</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-san-carlos/8fTWVDSC/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,6 +8645,98 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45218.1875</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:00</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:28</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:28</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-zeledon/z1LIgHKJ/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8737,6 +8737,282 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45221.04166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:50</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:50</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:50</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45221.04166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:40</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:40</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45221.14583333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:27</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:27</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:27</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/san-carlos-alajuelense/Yy1gmFcm/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9013,6 +9013,98 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45221.16666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:58</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>22/10/2023 03:58</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-puntarenas-fc/Mcg6pDs6/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9105,6 +9105,190 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:50</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:50</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:50</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:50</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Puntarenas FC</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>San Carlos</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.02</v>
+        <v>2.7</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-san-carlos/6oBA1BH4/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-sporting-san-jose/lAG52i2b/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Puntarenas FC</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.26</v>
+        <v>3.21</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-sporting-san-jose/lAG52i2b/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-san-carlos/6oBA1BH4/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,48 +8784,48 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="N91" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>3.47</v>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S91" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P91" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>22/10/2023 00:50</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T91" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Saprissa</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>21/10/2023 19:13</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,558 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45227.125</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:50</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-cartagines/8EeIsBRO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45227.16666666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>24/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>24/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:50</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>24/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/liberia-sporting-san-jose/t2QW0YRn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.95833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-guanacasteca/04tYbCda/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45228.04166666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:52</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:52</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-grecia/KhPz0hsg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45228.125</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-herediano/nuRS1ECt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45228.95833333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-san-carlos/AJZ06f4P/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9841,6 +9841,98 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45234.10416666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:29</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:29</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/san-carlos-puntarenas-fc/veuxbWB5/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9933,6 +9933,282 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45234.91666666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:54</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/guanacasteca-santos-de-guapiles/YHvtcjRB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-zeledon/K8DbFXtt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45235.125</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:59</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:59</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-alajuelense/UqYleUeO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10209,6 +10209,98 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-liberia/nLrpdAtI/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Saprissa</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 19:13</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="N92" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
         <v>3.47</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>22/10/2023 00:50</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,98 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-liberia/nLrpdAtI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45235.91666666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>31/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-herediano/8zXhflBU/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>AD Santos</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.71</v>
+        <v>1.88</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.57</v>
+        <v>4.06</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.87</v>
+        <v>3.95</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.88</v>
+        <v>2.71</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.97</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>22/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>22/10/2023 23:50</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O96" t="inlineStr">
+      <c r="R96" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S96" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:50</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T96" t="n">
-        <v>3.95</v>
+        <v>2.87</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>22/10/2023 23:50</t>
+          <t>22/10/2023 23:51</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,282 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-herediano/8zXhflBU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45238.91666666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>08/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>08/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>08/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-guanacasteca/CMIIA9eB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45239.04166666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:57</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:57</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-grecia/v9KACVQb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45239.04166666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-san-carlos/baC2Eidn/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10669,6 +10669,190 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45239.13541666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-sporting-san-jose/UcDN9TAH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45239.14583333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:21</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:21</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:21</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-cartagines/tO17DBBh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>1.88</v>
+        <v>2.71</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.97</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>22/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
           <t>22/10/2023 23:50</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="R95" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:50</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T95" t="n">
-        <v>3.95</v>
+        <v>2.87</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 23:50</t>
+          <t>22/10/2023 23:51</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>AD Santos</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.71</v>
+        <v>1.88</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.57</v>
+        <v>4.06</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.87</v>
+        <v>3.95</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,98 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-cartagines/tO17DBBh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45240.125</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/liberia-saprissa/YVJEBkt5/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,6 +10945,282 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.91666666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/guanacasteca-grecia/0pzeiLfj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45242.08333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>12/11/2023 01:52</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>12/11/2023 01:52</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>12/11/2023 01:52</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/san-carlos-herediano/6Nzih1up/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45242.125</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:59</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:59</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:59</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/liberia-puntarenas-fc/fqHoEr23/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11221,6 +11221,98 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.75</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-alajuelense/EmvajuAd/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>AD Santos</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.71</v>
+        <v>1.88</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.57</v>
+        <v>4.06</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.87</v>
+        <v>3.95</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.88</v>
+        <v>2.71</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.97</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>22/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>22/10/2023 23:50</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O96" t="inlineStr">
+      <c r="R96" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S96" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:50</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T96" t="n">
-        <v>3.95</v>
+        <v>2.87</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>22/10/2023 23:50</t>
+          <t>22/10/2023 23:51</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,190 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-alajuelense/EmvajuAd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.95833333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-zeledon/GhIsFOnc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45243.04166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>13/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>13/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>09/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>13/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-santos-de-guapiles/29GkD2H9/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Alajuelense</t>
+          <t>AD Santos</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>2</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Grecia</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.19</v>
+        <v>2.57</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>05/11/2023 22:12</t>
+          <t>04/11/2023 22:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.25</v>
+        <v>2.51</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>09/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>09/11/2023 00:56</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>05/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>09/11/2023 00:57</t>
-        </is>
-      </c>
       <c r="R110" t="n">
-        <v>12.63</v>
+        <v>2.78</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>05/11/2023 22:12</t>
+          <t>04/11/2023 22:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>9.99</v>
+        <v>2.87</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>09/11/2023 00:57</t>
+          <t>09/11/2023 00:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-grecia/v9KACVQb/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-san-carlos/baC2Eidn/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Alajuelense</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>San Carlos</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>2</v>
-      </c>
       <c r="J111" t="n">
-        <v>2.57</v>
+        <v>1.19</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>04/11/2023 22:12</t>
+          <t>05/11/2023 22:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.51</v>
+        <v>1.25</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/11/2023 00:59</t>
+          <t>09/11/2023 00:56</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.39</v>
+        <v>7.28</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>04/11/2023 22:12</t>
+          <t>05/11/2023 22:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.37</v>
+        <v>6.33</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>09/11/2023 00:56</t>
+          <t>09/11/2023 00:57</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.78</v>
+        <v>12.63</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>04/11/2023 22:12</t>
+          <t>05/11/2023 22:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.87</v>
+        <v>9.99</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/11/2023 00:59</t>
+          <t>09/11/2023 00:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-san-carlos/baC2Eidn/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-grecia/v9KACVQb/</t>
         </is>
       </c>
     </row>
@@ -11494,6 +11494,98 @@
       <c r="V120" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-santos-de-guapiles/29GkD2H9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45245.91666666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/guanacasteca-herediano/QVwSWgD6/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>1.88</v>
+        <v>2.71</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.97</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>22/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
           <t>22/10/2023 23:50</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="R95" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:50</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T95" t="n">
-        <v>3.95</v>
+        <v>2.87</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 23:50</t>
+          <t>22/10/2023 23:51</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>AD Santos</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.71</v>
+        <v>1.88</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.57</v>
+        <v>4.06</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.87</v>
+        <v>3.95</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>22/10/2023 23:51</t>
+          <t>22/10/2023 23:50</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-liberia/0lhAqXdC/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-zeledon/Sb0cnZCg/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,98 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/guanacasteca-herediano/QVwSWgD6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45252.125</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>15/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>21/11/2023 22:48</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>15/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>21/11/2023 22:48</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>15/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>21/11/2023 22:48</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-cartagines/jZlw4bvd/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11681,6 +11681,282 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45252.91666666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>15/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>22/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>15/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>22/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>15/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>22/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/guanacasteca-liberia/OO4bBtnM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45253.08333333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>15/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>15/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>15/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-alajuelense/YcfY4vPk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45253.125</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>16/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:57</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>16/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>16/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-santos-de-guapiles/xS82A01S/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,48 +8784,48 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="N91" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>3.47</v>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S91" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P91" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>22/10/2023 00:50</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T91" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Saprissa</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>21/10/2023 19:13</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Alajuelense</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>San Carlos</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
       <c r="J110" t="n">
-        <v>2.57</v>
+        <v>1.19</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>04/11/2023 22:12</t>
+          <t>05/11/2023 22:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.51</v>
+        <v>1.25</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>09/11/2023 00:59</t>
+          <t>09/11/2023 00:56</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.39</v>
+        <v>7.28</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>04/11/2023 22:12</t>
+          <t>05/11/2023 22:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.37</v>
+        <v>6.33</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>09/11/2023 00:56</t>
+          <t>09/11/2023 00:57</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.78</v>
+        <v>12.63</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>04/11/2023 22:12</t>
+          <t>05/11/2023 22:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.87</v>
+        <v>9.99</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>09/11/2023 00:59</t>
+          <t>09/11/2023 00:57</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-san-carlos/baC2Eidn/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-grecia/v9KACVQb/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Alajuelense</t>
+          <t>AD Santos</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Grecia</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
       <c r="J111" t="n">
-        <v>1.19</v>
+        <v>2.57</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>05/11/2023 22:12</t>
+          <t>04/11/2023 22:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.25</v>
+        <v>2.51</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>09/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>04/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>09/11/2023 00:56</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>05/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>09/11/2023 00:57</t>
-        </is>
-      </c>
       <c r="R111" t="n">
-        <v>12.63</v>
+        <v>2.78</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>05/11/2023 22:12</t>
+          <t>04/11/2023 22:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>9.99</v>
+        <v>2.87</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/11/2023 00:57</t>
+          <t>09/11/2023 00:59</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-grecia/v9KACVQb/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-san-carlos/baC2Eidn/</t>
         </is>
       </c>
     </row>
@@ -11954,6 +11954,190 @@
       <c r="V125" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-santos-de-guapiles/xS82A01S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45253.91666666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>16/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>23/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>16/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>23/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>16/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>23/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/grecia-saprissa/f7eU5K9q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45254.08333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:57</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:57</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/san-carlos-zeledon/t0FgCMWF/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Saprissa</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 19:13</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="N92" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
         <v>3.47</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>22/10/2023 00:50</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,374 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/san-carlos-zeledon/t0FgCMWF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>23/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:56</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>23/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:56</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>23/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:56</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/puntarenas-fc-grecia/phYuOJVR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Guanacasteca</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:58</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-guanacasteca/f3uTQLo9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>23/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:53</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>23/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:53</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>23/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:53</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-sporting-san-jose/rTyPR1W2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Zeledon</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:51</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:51</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:51</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-cartagines/GITyPaGL/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,48 +8784,48 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="N91" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>3.47</v>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S91" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P91" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>22/10/2023 00:50</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T91" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Saprissa</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>21/10/2023 19:13</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
         </is>
       </c>
     </row>
@@ -12506,6 +12506,190 @@
       <c r="V131" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/zeledon-cartagines/GITyPaGL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45256.91666666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>23/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>23/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>23/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/santos-de-guapiles-saprissa/UPms3Ig2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45257.04166666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:50</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:50</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:50</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/liberia-san-carlos/xSUXPu1F/</t>
         </is>
       </c>
     </row>

--- a/2023/costa-rica_primera-division_2023-2024.xlsx
+++ b/2023/costa-rica_primera-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>Saprissa</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 19:13</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>22/10/2023 00:40</t>
+          <t>22/10/2023 00:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartagines</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="N92" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
         <v>3.47</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>19/10/2023 18:43</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>22/10/2023 00:50</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>19/10/2023 18:43</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>22/10/2023 00:50</t>
+          <t>22/10/2023 00:40</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/vZ31ogSa/</t>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/sporting-san-jose-guanacasteca/UNdEriCI/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,558 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/costa-rica/primera-division/liberia-san-carlos/xSUXPu1F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45263.125</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:55</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:55</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:55</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-alajuelense/0lhpQQ3k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45263.75</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>28/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/cartagines-saprissa/dGogO4Y1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45270.125</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>4</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Cartagines</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:30</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:59</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>6</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:59</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-cartagines/AJZzmlB2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Alajuelense</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>06/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>10/12/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>06/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>10/12/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>06/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>10/12/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/alajuelense-herediano/rDskPpJe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45275.125</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>13/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:56</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>13/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:55</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>13/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:38</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/herediano-saprissa/CxsL5zMR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>costa-rica</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Herediano</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>17/12/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>17/12/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>17/12/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/costa-rica/primera-division/saprissa-herediano/nVXn1fUr/</t>
         </is>
       </c>
     </row>
